--- a/z.ERP/trunk/z.ERP.Web/File/Template/商户租金计提表.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/商户租金计提表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA663C-FAE8-4057-9A70-1E24FB5F04EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B711268A-5F43-4F41-BAC2-E53470EA0F27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="130" windowWidth="14810" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -20,10 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>MOMOPARK购物中心租金计提表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
   <si>
     <t>客户编码</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -192,6 +188,10 @@
   <si>
     <t>&amp;=MerchantRent.WYJE</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金计提表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -387,6 +387,12 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,12 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -772,193 +772,187 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -972,6 +966,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
